--- a/src/functionalTest/resources/CCD_HRS_v1.2-PROD.xlsx
+++ b/src/functionalTest/resources/CCD_HRS_v1.2-PROD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafadayican/hmcts/em/em-hrs-api/src/functionalTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABFA28D-DC29-2F47-9031-D462A7D23A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B945657-3A8C-BA48-B5A2-4CD3BBA946DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" tabRatio="500" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="316">
   <si>
     <t>Change History</t>
   </si>
@@ -3124,7 +3124,7 @@
   <dimension ref="A1:AMJ21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3359,24 +3359,14 @@
       <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24">
-        <v>44197</v>
-      </c>
+      <c r="A10" s="24"/>
       <c r="B10" s="55"/>
-      <c r="C10" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="146" t="s">
-        <v>71</v>
-      </c>
+      <c r="F10" s="146"/>
       <c r="G10" s="55"/>
-      <c r="H10" s="63">
-        <v>8</v>
-      </c>
+      <c r="H10" s="63"/>
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
     </row>
@@ -4063,24 +4053,14 @@
       <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24">
-        <v>44197</v>
-      </c>
+      <c r="A11" s="24"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="47" t="s">
-        <v>71</v>
-      </c>
+      <c r="F11" s="47"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="63">
-        <v>9</v>
-      </c>
+      <c r="H11" s="63"/>
       <c r="I11" s="117"/>
       <c r="J11" s="55"/>
     </row>
